--- a/doc/managment/Projektsteckbrief.xlsx
+++ b/doc/managment/Projektsteckbrief.xlsx
@@ -5,34 +5,40 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Web\Backend\vorlesungs-planung\doc\managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DHBW\Projects\Web\Server-Client\vorlesungs-planung\doc\managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4788C37-A5E5-4774-BDD9-00E4AB581A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D6E1E7-55F5-4E62-9AEB-117B6C85FA63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>Projekttitel</t>
   </si>
   <si>
-    <t>Projektnutzen</t>
-  </si>
-  <si>
     <t>Strategisches Ziel</t>
   </si>
   <si>
@@ -90,9 +96,6 @@
     <t>Eintrittswahr-scheinlichkeit</t>
   </si>
   <si>
-    <t>hoch</t>
-  </si>
-  <si>
     <t>mittel</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
     <t>Sonstiges</t>
   </si>
   <si>
-    <t>Risiko 1</t>
-  </si>
-  <si>
     <t>Risiko 3</t>
   </si>
   <si>
@@ -201,15 +201,6 @@
     <t>davon PM (Plan)</t>
   </si>
   <si>
-    <t>Beschreibung KPI1</t>
-  </si>
-  <si>
-    <t>beschreibung KPI2</t>
-  </si>
-  <si>
-    <t>Beschreibung KPI3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Freigaben </t>
   </si>
   <si>
@@ -219,51 +210,115 @@
     <t>Unterschrift Projektleiter</t>
   </si>
   <si>
+    <t>Bez</t>
+  </si>
+  <si>
     <t>Summe Eigen</t>
   </si>
   <si>
     <t>Summe Fremd</t>
   </si>
   <si>
-    <t>Herr Behrends</t>
-  </si>
-  <si>
-    <t>komplizierter E-Mail Verkehr</t>
+    <t>Entwicklung eines Tools zur Planung von Vorlesungen</t>
+  </si>
+  <si>
+    <t>DHBW</t>
+  </si>
+  <si>
+    <t>Behrends</t>
+  </si>
+  <si>
+    <t>Birn</t>
+  </si>
+  <si>
+    <t>Weitere Digitalisierung der DHBW</t>
+  </si>
+  <si>
+    <t>Schüler David</t>
+  </si>
+  <si>
+    <t>Die Entwicklung eines Tools zur Planung von Vorlesungen durch Gruppe 4 bis zum 20.06.2021</t>
+  </si>
+  <si>
+    <t>Broer Jan</t>
+  </si>
+  <si>
+    <t>Jira</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>David Schüler</t>
-  </si>
-  <si>
-    <t>Vorlesungs-planung</t>
-  </si>
-  <si>
-    <t>Jan Broer</t>
-  </si>
-  <si>
-    <t>MIT</t>
-  </si>
-  <si>
-    <t>Mehrere Sprachen, Mobile support, Internet Explorer support</t>
-  </si>
-  <si>
-    <t>Login, Daten hochladen, Dozentenverwaltung, Kursverwaltung</t>
-  </si>
-  <si>
-    <t>Entlastung der Sekräterinnen, Dozenten und Studenten</t>
+    <t>Gruppe 4</t>
+  </si>
+  <si>
+    <t>Backend nicht fertig</t>
+  </si>
+  <si>
+    <t>Login (Sekretariat, Dozent, Student), Kalenderansicht, Darkmode Support,</t>
+  </si>
+  <si>
+    <t>Das Organisieren der Vorlesungen ist kompliziert und verbraucht viel Zeit</t>
+  </si>
+  <si>
+    <t>Datenschutz(DSGVO), IT-Infrastruktur DHBW</t>
+  </si>
+  <si>
+    <t>Dozent, Sekretariat, IT-DHBW, Studenten</t>
+  </si>
+  <si>
+    <t>Mehrsprachig, Mobile support, eigene Datenbank errichten, Internet Explorer support</t>
+  </si>
+  <si>
+    <t>benötigte Planungszeit/Kurs</t>
+  </si>
+  <si>
+    <t>Kommunikationszeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planung der Umsetzung des Vorlesungsplanungs-Tools durch Gruppe 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung des Vorlesungsplanungs-Tools durch Gruppe 4 </t>
+  </si>
+  <si>
+    <t>Übergabe des Vorlesungsplanungs-Tools durch Gruppe 4</t>
+  </si>
+  <si>
+    <t>Überprüfung des Vorlesungsplanungs-Tools durch Gruppe 4</t>
+  </si>
+  <si>
+    <t>150h</t>
+  </si>
+  <si>
+    <t>300h à 70€/h</t>
+  </si>
+  <si>
+    <t>18.05.2021</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>08.06.2021</t>
+  </si>
+  <si>
+    <t>20.06.2021</t>
+  </si>
+  <si>
+    <t>10h à 150€</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,20 +375,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,12 +413,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -384,17 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -492,19 +564,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -897,6 +956,143 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -906,322 +1102,346 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1541,10 +1761,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,556 +1781,598 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="80"/>
+      <c r="C5" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="106"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="69"/>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="26">
+        <v>44312</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="28">
+        <v>44367</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="81"/>
+      <c r="C15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="81"/>
+      <c r="C18" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="68"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="99">
+        <v>0</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="71"/>
+      <c r="C21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="100">
+        <v>0</v>
+      </c>
+      <c r="H21" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="71"/>
+      <c r="C22" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="101">
+        <v>0</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="72"/>
+      <c r="C23" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="60">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="102">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="66"/>
+      <c r="C25" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="66"/>
+      <c r="C26" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="66"/>
+      <c r="C27" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="59">
-        <v>44319</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="D27" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="E27" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="67"/>
+      <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="68"/>
+      <c r="C29" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="D29" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="68"/>
+      <c r="C30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-    </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D30" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="69"/>
+      <c r="C31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="78">
-        <v>44312</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="79">
-        <v>44367</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="81" t="s">
+      <c r="D32" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="92">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="F32" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="62"/>
+      <c r="C33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="109"/>
+    </row>
+    <row r="34" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="62"/>
+      <c r="C34" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="111"/>
+    </row>
+    <row r="35" spans="2:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="63"/>
+      <c r="C35" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="86">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="2" t="s">
+      <c r="D35" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="113"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="93">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="87">
-        <v>0</v>
-      </c>
-      <c r="H19" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="94">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="89">
-        <f>SUM(D18:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="89">
-        <f>SUM(G18:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-    </row>
-    <row r="31" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="2:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="51"/>
-      <c r="C33" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B18:B21"/>
+  <mergeCells count="20">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
